--- a/medicine/Enfance/Yette_Jeandet/Yette_Jeandet.xlsx
+++ b/medicine/Enfance/Yette_Jeandet/Yette_Jeandet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yette Jeandet, née Juliette Saint-Léger, le 12 mars 1911 à  Chambéry et morte le 8 janvier 1999 à Paris 16e[1], est un écrivaine française. Elle a écrit également avec la romancière Yvonne Girault sous les pseudonymes collectifs de Anne Clairac et Diélette. Elle a principalement écrit des romans sentimentaux, des livres pour la jeunesse et des biographies historiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yette Jeandet, née Juliette Saint-Léger, le 12 mars 1911 à  Chambéry et morte le 8 janvier 1999 à Paris 16e, est un écrivaine française. Elle a écrit également avec la romancière Yvonne Girault sous les pseudonymes collectifs de Anne Clairac et Diélette. Elle a principalement écrit des romans sentimentaux, des livres pour la jeunesse et des biographies historiques.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juliette Saint-Léger est née en 1911. Lors de ses études à la Sorbonne, elle participa au groupe théâtral des Théophiliens de Gustave Cohen[2]. Elle
-devint journaliste aux Nouvelles littéraires, où elle tenait une rubrique trimestrielle sur la littérature jeunesse[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juliette Saint-Léger est née en 1911. Lors de ses études à la Sorbonne, elle participa au groupe théâtral des Théophiliens de Gustave Cohen. Elle
+devint journaliste aux Nouvelles littéraires, où elle tenait une rubrique trimestrielle sur la littérature jeunesse.
 Après la Seconde Guerre mondiale, elle créa rue Verneuil à Paris une librairie spécialisée dans la littérature enfantine.
-En 1954, elle publia son premier roman, Par-dessus le vieux mur, qui est le seul paru sous son vrai nom. Ses œuvres suivantes furent signées de son pseudonyme Yette Jeandet; celles écrites en collaboration avec Yvonne Girault parurent sous les pseudonymes de Anne Clairac ou Diélette[4]. Parmi ceux-ci, Laurette et la fille  du pharaon reçut en 1956 le Prix du salon de l'enfance[5].
+En 1954, elle publia son premier roman, Par-dessus le vieux mur, qui est le seul paru sous son vrai nom. Ses œuvres suivantes furent signées de son pseudonyme Yette Jeandet; celles écrites en collaboration avec Yvonne Girault parurent sous les pseudonymes de Anne Clairac ou Diélette. Parmi ceux-ci, Laurette et la fille  du pharaon reçut en 1956 le Prix du salon de l'enfance.
 </t>
         </is>
       </c>
@@ -545,21 +559,126 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(liste non exhaustive)
-Romans sentimentaux
-1954 : Sylvie et l'inconnu de Caramagne - Éditions Plon, coll. Les sentiers de l'aube, no 7.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(liste non exhaustive)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yette_Jeandet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yette_Jeandet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans sentimentaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1954 : Sylvie et l'inconnu de Caramagne - Éditions Plon, coll. Les sentiers de l'aube, no 7.
 1955 : La Cité sous le lac - Éditions Bias. Illustrations d'André Michel.
 1962 : Maisons de papier - Éditions Desclée de Brouwer, collection Belle Humeur.
-1964 : Et ce sera l'été... - Éditions Spes, coll. Vastes Horizons.
-Biographies historiques
-1965 : Blanche de Castille : Reine de l'unité française - Éditions Rencontre.
+1964 : Et ce sera l'été... - Éditions Spes, coll. Vastes Horizons.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yette_Jeandet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yette_Jeandet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biographies historiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1965 : Blanche de Castille : Reine de l'unité française - Éditions Rencontre.
 1966 : Héloïse : L'amour et l'absolu - Éditions Rencontre (Lausanne), coll. Ces femmes qui ont fait l'histoire (biographie sur Héloïse d'Argenteuil).
 1970 : Légendes carolingiennes - Éditions Hatier, coll. Légendes des peuples et des héros.
-1975 : Visages de Paris au Moyen Âge- Éditions Prentice Hall.
-Romans pour la jeunesse
-1952 : L'Île aux turquoises – Éditions Gautier-Languereau, coll. Bibliothèque de Suzette.
+1975 : Visages de Paris au Moyen Âge- Éditions Prentice Hall.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yette_Jeandet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Yette_Jeandet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1952 : L'Île aux turquoises – Éditions Gautier-Languereau, coll. Bibliothèque de Suzette.
 1954 : Demoiselle de Marescourt – Éditions Gautier-Languereau, coll. Bibliothèque de Suzette. Illustrations de Manon Iessel.
 1956 : Jacquette, mousquetaire du roy – Éditions Gautier-Languereau, coll. Bibliothèque de Suzette.
 1960 : Le Rendez-vous de la Saint-Sylvestre – Éditions Hachette, coll. Idéal-Bibliothèque no 187. Illustrations d'Albert Chazelle.
